--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C17EF-FF05-408A-AA44-3EEEF5274CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA477D26-DEEB-FE49-9DF0-3476F6E56640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>T_max</t>
   </si>
@@ -143,13 +139,22 @@
     <t>T_pinch_evap_I</t>
   </si>
   <si>
-    <t>diofférence T entre sortie de l'evaporateur I et etat 1</t>
-  </si>
-  <si>
     <t>T_hot_fluid_in_II</t>
   </si>
   <si>
     <t>p_hot_fluid</t>
+  </si>
+  <si>
+    <t>T_cd_subcool</t>
+  </si>
+  <si>
+    <t>différence T entre sortie de l'evaporateur I et etat 1</t>
+  </si>
+  <si>
+    <t>Limite technologique de la turbine</t>
+  </si>
+  <si>
+    <t>p_3</t>
   </si>
 </sst>
 </file>
@@ -586,17 +591,17 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -619,7 +624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -633,7 +638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -653,7 +658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -667,7 +672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -681,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -692,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -703,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -717,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -731,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -745,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -760,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -774,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -788,13 +793,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <f>273.15+10</f>
-        <v>283.14999999999998</v>
+        <f>273.15+8</f>
+        <v>281.14999999999998</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -803,13 +808,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <f>273.15+20</f>
-        <v>293.14999999999998</v>
+        <f>273.15+28</f>
+        <v>301.14999999999998</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -818,9 +823,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <f>140+273.15</f>
@@ -833,13 +838,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <f>140+273.15</f>
-        <v>413.15</v>
+        <f>838.15</f>
+        <v>838.15</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -847,8 +852,11 @@
       <c r="D17" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -859,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -876,73 +884,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>1000000</v>
       </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <f>310*10^5</f>
+        <v>31000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="b">
         <v>0</v>
       </c>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA477D26-DEEB-FE49-9DF0-3476F6E56640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46FFA8D-940F-44F7-9A08-3371FAAD8F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>T_max</t>
   </si>
@@ -49,12 +53,6 @@
     <t>fluid</t>
   </si>
   <si>
-    <t>r_pump_1</t>
-  </si>
-  <si>
-    <t>r_pump_2</t>
-  </si>
-  <si>
     <t>p_max</t>
   </si>
   <si>
@@ -85,12 +83,6 @@
     <t>HMW3</t>
   </si>
   <si>
-    <t>T_cold_fluid_in</t>
-  </si>
-  <si>
-    <t>T_cold_fluid_out</t>
-  </si>
-  <si>
     <t>cold_fluid</t>
   </si>
   <si>
@@ -136,15 +128,6 @@
     <t>hot_fluid</t>
   </si>
   <si>
-    <t>T_pinch_evap_I</t>
-  </si>
-  <si>
-    <t>T_hot_fluid_in_II</t>
-  </si>
-  <si>
-    <t>p_hot_fluid</t>
-  </si>
-  <si>
     <t>T_cd_subcool</t>
   </si>
   <si>
@@ -155,6 +138,51 @@
   </si>
   <si>
     <t>p_3</t>
+  </si>
+  <si>
+    <t>T_8</t>
+  </si>
+  <si>
+    <t>T_7</t>
+  </si>
+  <si>
+    <t>T_9</t>
+  </si>
+  <si>
+    <t>p_9</t>
+  </si>
+  <si>
+    <t>T_pinch_ex_II</t>
+  </si>
+  <si>
+    <t>T_pinch_ex_I</t>
+  </si>
+  <si>
+    <t>T_11</t>
+  </si>
+  <si>
+    <t>m_dot_tot</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Débit massique qui passe dans le condensateur</t>
+  </si>
+  <si>
+    <t>p_3_guess</t>
+  </si>
+  <si>
+    <t>R245fa</t>
+  </si>
+  <si>
+    <t>R245fa : p = [5;25] bar</t>
+  </si>
+  <si>
+    <t>T_10</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -254,10 +282,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}" name="Tableau1" displayName="Tableau1" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}" name="Tableau1" displayName="Tableau1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7377AC87-CDA3-427A-A0D9-BC44663F0EB0}" name="Name"/>
@@ -588,20 +616,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F651880-D173-4020-B147-8D82FB683A58}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -612,55 +640,55 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -669,12 +697,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0.85</v>
@@ -683,34 +714,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -719,12 +750,12 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -733,256 +764,271 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <f>310*10^5</f>
         <v>31000000</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>31000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2083</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <f>273.15+8</f>
-        <v>281.14999999999998</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <f>273.15+28</f>
-        <v>301.14999999999998</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16">
-        <f>140+273.15</f>
+        <f>273.15 + 140</f>
         <v>413.15</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>273.15 + 100</f>
+        <v>373.15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <f>273.15 + 50</f>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <f>838.15</f>
         <v>838.15</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>288.14999999999998</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>1000000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <f>310*10^5</f>
-        <v>31000000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>288.14999999999998</v>
+      </c>
       <c r="D23" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
       <c r="D25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA477D26-DEEB-FE49-9DF0-3476F6E56640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1F7C0-1358-7A49-9D55-55AFDBCB268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>T_max</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t>p_3</t>
+  </si>
+  <si>
+    <t>T_surchauffe</t>
+  </si>
+  <si>
+    <t>eta_is_T</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>A MODIFIER AVEC ANCIENT devoirs</t>
+  </si>
+  <si>
+    <t>m_tot</t>
+  </si>
+  <si>
+    <t>m_dot_CF</t>
+  </si>
+  <si>
+    <t>T_10</t>
+  </si>
+  <si>
+    <t>T_11</t>
+  </si>
+  <si>
+    <t>p_CF</t>
   </si>
 </sst>
 </file>
@@ -591,7 +618,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,7 +930,7 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -937,36 +964,99 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
       <c r="D24" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
       <c r="D26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
       <c r="D28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29">
+        <v>101325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
       <c r="D29" s="2" t="b">
         <v>0</v>
       </c>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1F7C0-1358-7A49-9D55-55AFDBCB268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969E1DE-8434-47A4-8FB9-7D845E5B6163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>T_max</t>
   </si>
@@ -154,18 +158,12 @@
     <t>Limite technologique de la turbine</t>
   </si>
   <si>
-    <t>p_3</t>
-  </si>
-  <si>
     <t>T_surchauffe</t>
   </si>
   <si>
     <t>eta_is_T</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
     <t>A MODIFIER AVEC ANCIENT devoirs</t>
   </si>
   <si>
@@ -182,6 +180,39 @@
   </si>
   <si>
     <t>p_CF</t>
+  </si>
+  <si>
+    <t>p_1_guess</t>
+  </si>
+  <si>
+    <t>p_2_guess</t>
+  </si>
+  <si>
+    <t>p_5_guess</t>
+  </si>
+  <si>
+    <t>T_8</t>
+  </si>
+  <si>
+    <t>T_9</t>
+  </si>
+  <si>
+    <t>T_7</t>
+  </si>
+  <si>
+    <t>T_pinch_ex_I</t>
+  </si>
+  <si>
+    <t>T_pinch_ex_II</t>
+  </si>
+  <si>
+    <t>p_HF</t>
+  </si>
+  <si>
+    <t>T_pinch_cd</t>
+  </si>
+  <si>
+    <t>R245fa</t>
   </si>
 </sst>
 </file>
@@ -281,10 +312,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}" name="Tableau1" displayName="Tableau1" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}" name="Tableau1" displayName="Tableau1" ref="A1:F51" totalsRowShown="0">
+  <autoFilter ref="A1:F51" xr:uid="{23D0283E-22EB-40B2-9914-D98C1DD2B62A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7377AC87-CDA3-427A-A0D9-BC44663F0EB0}" name="Name"/>
@@ -615,20 +646,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F651880-D173-4020-B147-8D82FB683A58}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -651,7 +682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -665,7 +696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -685,23 +716,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
-      </c>
-      <c r="B4">
-        <v>0.85</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
       </c>
       <c r="B5">
         <v>0.85</v>
@@ -713,45 +745,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -760,319 +792,474 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <f>2*100000</f>
+        <v>200000</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <f>10*100000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <f>1*1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <f>10*1000000</f>
+        <v>10000000</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1000000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B19" s="1">
         <v>31000000</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B20">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B21">
         <v>2083</v>
       </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B22">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <f>273.15+15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <f>273.15 + 100</f>
+        <v>373.15</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <f>273.15 + 60</f>
+        <v>333.15</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B29">
         <f>273.15+8</f>
         <v>281.14999999999998</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B30">
         <f>273.15+28</f>
         <v>301.14999999999998</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
+      <c r="B31">
         <f>140+273.15</f>
         <v>413.15</v>
       </c>
-      <c r="D16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
         <f>838.15</f>
         <v>838.15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B37">
         <v>288.14999999999998</v>
       </c>
-      <c r="D19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>1000000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <f>310*10^5</f>
-        <v>31000000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
+      <c r="B39">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29">
-        <v>101325</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="2" t="b">
+      <c r="D39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95421BB6-EF2D-42E1-9B3F-7901AFC0C87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F59D7BB-F063-46F3-A063-8F36B411AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -185,9 +185,6 @@
     <t>R245fa ; Pentane ; IsoButane</t>
   </si>
   <si>
-    <t>p_10</t>
-  </si>
-  <si>
     <t>p_6_guess</t>
   </si>
   <si>
@@ -195,6 +192,33 @@
   </si>
   <si>
     <t>m_dot_cf</t>
+  </si>
+  <si>
+    <t>p_HF</t>
+  </si>
+  <si>
+    <t>p_CF</t>
+  </si>
+  <si>
+    <t>m_dot_CF</t>
+  </si>
+  <si>
+    <t>eta_is_T</t>
+  </si>
+  <si>
+    <t>T_surchauffe</t>
+  </si>
+  <si>
+    <t>m_tot</t>
+  </si>
+  <si>
+    <t>p_1_guess</t>
+  </si>
+  <si>
+    <t>p_2_guess</t>
+  </si>
+  <si>
+    <t>p_5_guess</t>
   </si>
 </sst>
 </file>
@@ -204,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +241,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,12 +288,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -284,8 +313,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F28" totalsRowShown="0">
-  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
+  <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="A1:A28"/>
   </sortState>
@@ -589,10 +618,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +634,7 @@
     <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -642,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -662,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -679,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -693,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -703,14 +732,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -721,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -735,7 +761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -749,11 +775,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="6">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5">
         <v>35</v>
       </c>
       <c r="C10" t="s">
@@ -763,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -780,11 +806,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5">
         <f>1.1*100000</f>
         <v>110000.00000000001</v>
       </c>
@@ -792,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -804,11 +830,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="6">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
         <f>1*100000</f>
         <v>100000</v>
       </c>
@@ -816,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -830,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -968,7 +994,7 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -981,7 +1007,7 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="D26" t="s">
@@ -995,7 +1021,7 @@
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f>1</f>
         <v>1</v>
       </c>
@@ -1007,17 +1033,220 @@
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="8">
-        <v>288.14999999999998</v>
+      <c r="B28" s="7">
+        <f>273.15</f>
+        <v>273.14999999999998</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6">
+        <f>1*1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="7">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7">
+        <f>5*100000</f>
+        <v>500000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6">
+        <f>15*100000</f>
+        <v>1500000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1">
+        <f>1*1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="D60" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F59D7BB-F063-46F3-A063-8F36B411AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFB893-7D24-D947-9240-F1A017EBBDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +215,12 @@
   </si>
   <si>
     <t>p_5_guess</t>
+  </si>
+  <si>
+    <t>m_dot_HF</t>
+  </si>
+  <si>
+    <t>R22</t>
   </si>
 </sst>
 </file>
@@ -620,21 +622,21 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,12 +659,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -671,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -691,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -708,7 +710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -722,7 +724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -736,7 +738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -747,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -761,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -775,7 +777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -789,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -806,19 +808,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="5">
-        <f>1.1*100000</f>
-        <v>110000.00000000001</v>
+        <f>101325</f>
+        <v>101325</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -830,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -842,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -856,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -870,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -885,7 +887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -900,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -915,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -927,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -942,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -957,7 +959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -974,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -992,7 +994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1029,31 +1031,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="7">
-        <f>273.15</f>
-        <v>273.14999999999998</v>
+        <f>273.16</f>
+        <v>273.16000000000003</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="6">
-        <f>1*1000000</f>
-        <v>1000000</v>
+        <f>4*1000000</f>
+        <v>4000000</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1098,148 +1100,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="7">
-        <f>5*100000</f>
-        <v>500000</v>
+        <f>1*100000</f>
+        <v>100000</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="6">
-        <f>15*100000</f>
-        <v>1500000</v>
+        <f>2*100000</f>
+        <v>200000</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="1">
-        <f>1*1000000</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="D50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="D54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="D60" t="s">
         <v>9</v>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFB893-7D24-D947-9240-F1A017EBBDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977D94A-534F-45D3-8A1D-7711ECD501E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13785" yWindow="0" windowWidth="24615" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -175,9 +179,6 @@
     <t>p_3_guess</t>
   </si>
   <si>
-    <t>Pentane</t>
-  </si>
-  <si>
     <t>R245fa ; Pentane ; IsoButane</t>
   </si>
   <si>
@@ -221,6 +222,12 @@
   </si>
   <si>
     <t>R22</t>
+  </si>
+  <si>
+    <t>pentane</t>
+  </si>
+  <si>
+    <t>Isobutane</t>
   </si>
 </sst>
 </file>
@@ -278,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,6 +302,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -317,8 +330,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
   <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-    <sortCondition ref="A1:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
@@ -623,20 +636,20 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,12 +672,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -673,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -693,26 +706,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.85</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
+        <f>0.9</f>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>0.85</v>
@@ -723,49 +734,55 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -774,29 +791,29 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -804,455 +821,457 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3">
+        <f>1*300000</f>
+        <v>300000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2">
+        <f>500000</f>
+        <v>500000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5">
         <f>101325</f>
         <v>101325</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
-        <f>2*10^6</f>
-        <v>2000000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2">
+        <f>4*1000000</f>
+        <v>4000000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>31000000</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4">
-        <v>31000000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B25" s="8">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B26" s="9">
         <f>273.15 + 25</f>
         <v>298.14999999999998</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B27" s="9">
         <f>273.15 + 15</f>
         <v>288.14999999999998</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B28" s="9">
         <f>273.15 + 140</f>
         <v>413.15</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B29" s="9">
         <f>273.15 + 90</f>
         <v>363.15</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B30" s="9">
         <f>273.15 + 50</f>
         <v>323.14999999999998</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B31" s="8">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B32" s="9">
         <f>838.15</f>
         <v>838.15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B34" s="6">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B35" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B36" s="7">
         <f>273.16</f>
         <v>273.16000000000003</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="6">
-        <f>4*1000000</f>
-        <v>4000000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="7">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="6">
-        <f>0.9</f>
-        <v>0.9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="B37" s="7">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="7">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="6">
-        <f>2*100000</f>
-        <v>200000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1">
-        <f>0.5*100000</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="D50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="D54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="D60" t="s">
         <v>9</v>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977D94A-534F-45D3-8A1D-7711ECD501E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94AFA90-C675-DE45-8C9E-48C4229D1F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="0" windowWidth="24615" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -179,6 +175,9 @@
     <t>p_3_guess</t>
   </si>
   <si>
+    <t>Pentane</t>
+  </si>
+  <si>
     <t>R245fa ; Pentane ; IsoButane</t>
   </si>
   <si>
@@ -219,15 +218,6 @@
   </si>
   <si>
     <t>m_dot_HF</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>pentane</t>
-  </si>
-  <si>
-    <t>Isobutane</t>
   </si>
 </sst>
 </file>
@@ -285,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,12 +292,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -330,8 +314,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
   <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
-    <sortCondition ref="A1:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
@@ -635,21 +619,21 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,12 +656,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -686,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -706,572 +690,566 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>31000000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3">
+        <f>273.15 + 90</f>
+        <v>363.15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <f>273.15 + 40</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <f>838.15</f>
+        <v>838.15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="7">
+        <f>273.16</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6">
+        <f>1*1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B30" s="7">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6">
         <f>0.9</f>
         <v>0.9</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="7">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="5">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6">
+        <f>2*100000</f>
+        <v>200000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3">
-        <f>1*300000</f>
-        <v>300000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="2">
-        <f>500000</f>
-        <v>500000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2">
-        <f>2*10^6</f>
-        <v>2000000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="B36" s="1">
         <f>0.5*100000</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="5">
-        <f>101325</f>
-        <v>101325</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2">
-        <f>4*1000000</f>
-        <v>4000000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4">
-        <v>31000000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <f>100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9">
-        <f>273.15 + 25</f>
-        <v>298.14999999999998</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9">
-        <f>273.15 + 15</f>
-        <v>288.14999999999998</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="9">
-        <f>273.15 + 140</f>
-        <v>413.15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="9">
-        <f>273.15 + 90</f>
-        <v>363.15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="9">
-        <f>273.15 + 50</f>
-        <v>323.14999999999998</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="9">
-        <f>838.15</f>
-        <v>838.15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="6">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="7">
-        <f>273.16</f>
-        <v>273.16000000000003</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="D50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="D54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="D60" t="s">
         <v>9</v>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94AFA90-C675-DE45-8C9E-48C4229D1F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C885A0EC-463C-4541-A594-35F99C58F663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -275,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +296,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -314,8 +324,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
   <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-    <sortCondition ref="A1:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
@@ -619,21 +629,21 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -670,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -690,26 +700,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.85</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="2">
+        <f>0.9</f>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>0.85</v>
@@ -721,48 +729,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -771,29 +779,29 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -801,455 +809,460 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
+        <f>2*1000000</f>
+        <v>2000000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B22" s="5">
         <f>101325</f>
         <v>101325</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
-        <f>2*10^6</f>
-        <v>2000000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2">
+        <f>1*1000000</f>
         <v>1000000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>31000000</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4">
-        <v>31000000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B25" s="8">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B26" s="9">
         <f>273.15 + 25</f>
         <v>298.14999999999998</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B27" s="9">
         <f>273.15 + 15</f>
         <v>288.14999999999998</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B28" s="9">
         <f>273.15 + 140</f>
         <v>413.15</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B29" s="9">
         <f>273.15 + 90</f>
         <v>363.15</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B30" s="9">
         <f>273.15 + 40</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B32" s="9">
         <f>838.15</f>
         <v>838.15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B34" s="6">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B35" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B36" s="7">
         <f>273.16</f>
         <v>273.16000000000003</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="6">
-        <f>1*1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="7">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="6">
-        <f>0.9</f>
-        <v>0.9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B37" s="7">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="7">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="6">
-        <f>2*100000</f>
-        <v>200000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1">
-        <f>0.5*100000</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="D50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="D54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="D60" t="s">
         <v>9</v>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C885A0EC-463C-4541-A594-35F99C58F663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D21E0-729E-044C-B493-BB86EA06D916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +175,6 @@
     <t>p_3_guess</t>
   </si>
   <si>
-    <t>Pentane</t>
-  </si>
-  <si>
     <t>R245fa ; Pentane ; IsoButane</t>
   </si>
   <si>
@@ -222,6 +215,24 @@
   </si>
   <si>
     <t>m_dot_HF</t>
+  </si>
+  <si>
+    <t>R245ca</t>
+  </si>
+  <si>
+    <t>Fluide chaud : H20</t>
+  </si>
+  <si>
+    <t>Cond : 15 et 25</t>
+  </si>
+  <si>
+    <t>P_HF = 10 bar</t>
+  </si>
+  <si>
+    <t>P_CF = 1 bar</t>
+  </si>
+  <si>
+    <t>T_pinch = 10</t>
   </si>
 </sst>
 </file>
@@ -279,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,12 +307,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -324,8 +329,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
   <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
-    <sortCondition ref="A1:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
@@ -629,21 +634,21 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -680,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -700,24 +705,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2">
-        <f>0.9</f>
-        <v>0.9</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.85</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>0.85</v>
@@ -729,48 +736,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.85</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -779,29 +786,29 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -809,460 +816,473 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="5">
+        <f>101325</f>
+        <v>101325</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5">
         <f>1*100000</f>
         <v>100000</v>
       </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>31000000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3">
+        <f>273.15 + 90</f>
+        <v>363.15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <f>273.15 + 40</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <f>838.15</f>
+        <v>838.15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="6">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="7">
+        <f>273.16</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6">
+        <f>10*10^5</f>
+        <v>1000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6">
+        <f>8*10^(-1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="7">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6">
+        <f>2*100000</f>
+        <v>200000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2">
-        <f>2*1000000</f>
-        <v>2000000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2">
-        <f>2*10^6</f>
-        <v>2000000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="B36" s="1">
         <f>0.5*100000</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5">
-        <f>101325</f>
-        <v>101325</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2">
-        <f>1*1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4">
-        <v>31000000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <f>100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9">
-        <f>273.15 + 25</f>
-        <v>298.14999999999998</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9">
-        <f>273.15 + 15</f>
-        <v>288.14999999999998</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="9">
-        <f>273.15 + 140</f>
-        <v>413.15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="9">
-        <f>273.15 + 90</f>
-        <v>363.15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="9">
-        <f>273.15 + 40</f>
-        <v>313.14999999999998</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="9">
-        <f>838.15</f>
-        <v>838.15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="6">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="7">
-        <f>273.16</f>
-        <v>273.16000000000003</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="7">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="D50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="D54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="D60" t="s">
         <v>9</v>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D21E0-729E-044C-B493-BB86EA06D916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1482E0-7B75-48E7-9BF0-7DD77DA6F5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8310" yWindow="1845" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -233,6 +237,9 @@
   </si>
   <si>
     <t>T_pinch = 10</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
   </si>
 </sst>
 </file>
@@ -290,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +314,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -329,8 +342,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
   <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-    <sortCondition ref="A1:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
@@ -634,21 +647,21 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -685,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -705,26 +718,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.85</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
+        <f>8*10^(-1)</f>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>0.85</v>
@@ -736,48 +747,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -786,29 +797,29 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -816,473 +827,498 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3">
+        <f>1*500000</f>
+        <v>500000</v>
+      </c>
+      <c r="C16">
+        <f>Tableau1[[#This Row],[Value]]/100000</f>
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2">
+        <f>2*1000000</f>
+        <v>2000000</v>
+      </c>
+      <c r="C17">
+        <f>Tableau1[[#This Row],[Value]]/100000</f>
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="C18">
+        <f>Tableau1[[#This Row],[Value]]/100000</f>
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <f>Tableau1[[#This Row],[Value]]/100000</f>
+        <v>0.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="C20">
+        <f>Tableau1[[#This Row],[Value]]/100000</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B22" s="5">
         <f>101325</f>
         <v>101325</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
-        <f>2*10^6</f>
-        <v>2000000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2">
+        <f>10*10^5</f>
         <v>1000000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>31000000</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4">
-        <v>31000000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B25" s="8">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B26" s="9">
         <f>273.15 + 25</f>
         <v>298.14999999999998</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B27" s="9">
         <f>273.15 + 15</f>
         <v>288.14999999999998</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B28" s="9">
         <f>273.15 + 140</f>
         <v>413.15</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B29" s="9">
         <f>273.15 + 90</f>
         <v>363.15</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B30" s="9">
         <f>273.15 + 40</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B32" s="9">
         <f>838.15</f>
         <v>838.15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B33" s="1">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B34" s="6">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B35" s="6">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B36" s="7">
         <f>273.16</f>
         <v>273.16000000000003</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="6">
-        <f>10*10^5</f>
-        <v>1000000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="7">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="6">
-        <f>8*10^(-1)</f>
-        <v>0.8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B37" s="7">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="7">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="6">
-        <f>2*100000</f>
-        <v>200000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1">
-        <f>0.5*100000</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="D46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="D50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="D54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="D58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="D60" t="s">
         <v>9</v>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D21E0-729E-044C-B493-BB86EA06D916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A65C77-3BEF-A041-81AA-B3097114E75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -199,9 +199,6 @@
     <t>eta_is_T</t>
   </si>
   <si>
-    <t>T_surchauffe</t>
-  </si>
-  <si>
     <t>m_tot</t>
   </si>
   <si>
@@ -233,6 +230,15 @@
   </si>
   <si>
     <t>T_pinch = 10</t>
+  </si>
+  <si>
+    <t>eta_mec</t>
+  </si>
+  <si>
+    <t>T_surchauffe_3</t>
+  </si>
+  <si>
+    <t>T_surchauffe_4</t>
   </si>
 </sst>
 </file>
@@ -263,12 +269,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -290,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,14 +311,30 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -327,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F60" totalsRowShown="0">
-  <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F61" totalsRowShown="0">
+  <autoFilter ref="A1:F61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="A1:A28"/>
   </sortState>
@@ -632,23 +660,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,13 +700,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="6"/>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -685,14 +715,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -705,13 +735,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
+        <f>0.85</f>
         <v>0.85</v>
       </c>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -722,13 +754,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3">
+        <f>0.85</f>
         <v>0.85</v>
       </c>
+      <c r="C5" s="7"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -736,13 +770,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -750,67 +785,85 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="7"/>
       <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
+      <c r="C9" s="7"/>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="12">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="9">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
@@ -819,20 +872,30 @@
       <c r="F11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <f>101325</f>
         <v>101325</v>
       </c>
+      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -840,54 +903,74 @@
         <f>2*10^6</f>
         <v>2000000</v>
       </c>
+      <c r="C13" s="7"/>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <f>1*100000</f>
         <v>100000</v>
       </c>
+      <c r="C14" s="6"/>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>1000000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="13">
         <v>31000000</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="P16" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -895,6 +978,7 @@
         <f>100000</f>
         <v>100000</v>
       </c>
+      <c r="C17" s="7"/>
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -902,28 +986,39 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <f>273.15 + 25</f>
         <v>298.14999999999998</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="P18" s="12">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -931,32 +1026,43 @@
         <f>273.15 + 15</f>
         <v>288.14999999999998</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="P19" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <f>273.15 + 140</f>
         <v>413.15</v>
       </c>
+      <c r="C20" s="6"/>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P20" s="12">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -964,329 +1070,448 @@
         <f>273.15 + 90</f>
         <v>363.15</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
+        <f>273.15 + 65</f>
+        <v>338.15</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="13">
+        <v>31000000</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="2">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9">
+        <f>838.15</f>
+        <v>838.15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="9">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="10">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="3">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="14">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="9">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="3">
+        <f>273.15 + 90</f>
+        <v>363.15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="15">
+        <f>273.16</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
         <f>273.15 + 40</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4">
+        <f>10*10^5</f>
+        <v>1000000</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="2">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="Q29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="15">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="9">
         <f>838.15</f>
         <v>838.15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="Q30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="10">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="6">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="14">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="C32" s="6"/>
+      <c r="P32" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="5">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="4">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="14">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="15">
         <f>273.16</f>
         <v>273.16000000000003</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="5">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="4">
         <f>10*10^5</f>
         <v>1000000</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="14">
+        <f>4*10^5</f>
+        <v>400000</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" s="15">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="6">
-        <f>8*10^(-1)</f>
-        <v>0.8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="7">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="7">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6">
-        <f>2*100000</f>
-        <v>200000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="B37" s="10">
         <f>0.5*100000</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="C37" s="7"/>
+      <c r="P37" s="4">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="8">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="7"/>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="7"/>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="7"/>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="7"/>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="7"/>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
+      <c r="P38" s="14">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="10">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="P39" s="5">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P40" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="5">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="14">
+        <f>4*10^5</f>
+        <v>400000</v>
+      </c>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="P43" s="10">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="P44" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="P45" s="10">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A65C77-3BEF-A041-81AA-B3097114E75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF78EED-8CF0-8B44-A7DD-3D8C9A82509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1091,8 +1091,8 @@
         <v>36</v>
       </c>
       <c r="B22" s="9">
-        <f>273.15 + 65</f>
-        <v>338.15</v>
+        <f>273.15 + 45</f>
+        <v>318.14999999999998</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" t="s">
@@ -1161,8 +1161,8 @@
         <v>50</v>
       </c>
       <c r="B25" s="10">
-        <f>10</f>
-        <v>10</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" t="s">
@@ -1181,8 +1181,8 @@
         <v>40</v>
       </c>
       <c r="B26" s="14">
-        <f>10</f>
-        <v>10</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" t="s">
@@ -1202,8 +1202,8 @@
         <v>42</v>
       </c>
       <c r="B27" s="4">
-        <f>10</f>
-        <v>10</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" t="s">
@@ -1516,6 +1516,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF78EED-8CF0-8B44-A7DD-3D8C9A82509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A8E9A2-2AEF-9C49-8362-6081AA7A56F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1067,8 +1067,8 @@
         <v>34</v>
       </c>
       <c r="B21" s="3">
-        <f>273.15 + 90</f>
-        <v>363.15</v>
+        <f>347.15</f>
+        <v>347.15</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>35</v>
@@ -1161,8 +1161,8 @@
         <v>50</v>
       </c>
       <c r="B25" s="10">
-        <f>5</f>
-        <v>5</v>
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" t="s">
@@ -1180,7 +1180,7 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="4">
         <f>5</f>
         <v>5</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <f>5</f>
         <v>5</v>
       </c>
@@ -1295,8 +1295,8 @@
         <v>68</v>
       </c>
       <c r="B32" s="14">
-        <f>10</f>
-        <v>10</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="C32" s="6"/>
       <c r="P32" s="14">
@@ -1309,8 +1309,8 @@
         <v>69</v>
       </c>
       <c r="B33" s="5">
-        <f>10</f>
-        <v>10</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" t="s">

--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisevaessen/Documents/Thermal_Project/Param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A8E9A2-2AEF-9C49-8362-6081AA7A56F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D776C7E-DA27-4C8A-9AA9-D9CD70C80E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +244,129 @@
   </si>
   <si>
     <t>T_surchauffe_4</t>
+  </si>
+  <si>
+    <t>Fluide</t>
+  </si>
+  <si>
+    <t>Nom complet</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>PropsSI</t>
+  </si>
+  <si>
+    <t>Rejet</t>
+  </si>
+  <si>
+    <t>Avantage</t>
+  </si>
+  <si>
+    <t>R134a</t>
+  </si>
+  <si>
+    <t>Tétrafluoroéthane</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t>T_crit = 101,1 °C</t>
+  </si>
+  <si>
+    <t>R717</t>
+  </si>
+  <si>
+    <t>Ammoniac</t>
+  </si>
+  <si>
+    <t>Humide</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>T_ebullition = -33,3 °C</t>
+  </si>
+  <si>
+    <t>R290</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>T_ebullition = -42,1°C</t>
+  </si>
+  <si>
+    <t>R1270</t>
+  </si>
+  <si>
+    <t>Propène (Propylène)</t>
+  </si>
+  <si>
+    <t>Propylene</t>
+  </si>
+  <si>
+    <t>T_ebullition = -47,6°C</t>
+  </si>
+  <si>
+    <t>R600</t>
+  </si>
+  <si>
+    <t>n-Butane</t>
+  </si>
+  <si>
+    <t>T_ebullition = -0,5°C</t>
+  </si>
+  <si>
+    <t>R600a</t>
+  </si>
+  <si>
+    <t>Isobutane</t>
+  </si>
+  <si>
+    <t>IsoButane</t>
+  </si>
+  <si>
+    <t>T_ebullition = -11°C</t>
+  </si>
+  <si>
+    <t>R245fa</t>
+  </si>
+  <si>
+    <t>1,1,1,3,3-Pentafluoropropane</t>
+  </si>
+  <si>
+    <t>1,1,2,2,3-Pentafluoropropane</t>
+  </si>
+  <si>
+    <t>meilleure conductivité thermique que R245fa</t>
+  </si>
+  <si>
+    <t>Pentane</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>T_ebullition = -0,5 °C</t>
+  </si>
+  <si>
+    <t>T_1_guess</t>
+  </si>
+  <si>
+    <t>T_2_guess</t>
+  </si>
+  <si>
+    <t>T_5_guess</t>
+  </si>
+  <si>
+    <t>fa = 55C</t>
   </si>
 </sst>
 </file>
@@ -248,7 +376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +392,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,17 +453,15 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -337,11 +471,160 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -357,8 +640,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F61" totalsRowShown="0">
   <autoFilter ref="A1:F61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-    <sortCondition ref="A1:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+    <sortCondition ref="A1:A61"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
@@ -369,6 +652,54 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Définition"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2FA2F568-0248-45AE-9042-8780BE1363D3}" name="Tableau4" displayName="Tableau4" ref="Y18:AD29" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="Y18:AD29" xr:uid="{2FA2F568-0248-45AE-9042-8780BE1363D3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F86E2252-7D94-4667-8E80-B400824140EE}" name="Fluide" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{350451D3-1A67-4B57-82F7-F2A085E0ADAF}" name="Nom complet" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BA040F36-9D1B-454D-9B86-065D7C458046}" name="Catégorie" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{58E388D9-6C63-4F82-8C67-CC17ECFDC079}" name="PropsSI" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{08322E45-1C4F-42CB-B7B5-FA32BA8FB321}" name="Rejet"/>
+    <tableColumn id="6" xr3:uid="{8E932575-BD1A-4F6F-BCF7-C1A215EA9C9F}" name="Avantage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B622C7F5-5FD6-4726-B03D-42FCA207855A}" name="Tableau14" displayName="Tableau14" ref="A1:F61" totalsRowShown="0">
+  <autoFilter ref="A1:F61" xr:uid="{B622C7F5-5FD6-4726-B03D-42FCA207855A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+    <sortCondition ref="A1:A61"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1153FE32-9E0D-424F-890A-55B42A546DF7}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{BF1D5ACD-5605-4290-8DAD-8841936CC2B4}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{A5DF76C7-FCBC-4C50-8A35-E91AFD49920B}" name="Unit"/>
+    <tableColumn id="4" xr3:uid="{41653E5D-09CB-4EAB-82F6-610F83F278D7}" name="Vérifié"/>
+    <tableColumn id="5" xr3:uid="{83388342-4BBC-4F88-8234-B4505F2ED88E}" name="Sources"/>
+    <tableColumn id="6" xr3:uid="{DA9E7452-8694-4756-848D-05B4BF040AAF}" name="Définition"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7231328B-0729-43BD-8324-446AEAA2CEAC}" name="Tableau45" displayName="Tableau45" ref="Y18:AD29" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="Y18:AD29" xr:uid="{7231328B-0729-43BD-8324-446AEAA2CEAC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B090584A-54FA-4B17-92D8-3DF9CF5ED2FE}" name="Fluide" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0AA9E7A1-5F5E-4938-94F2-959C77D60EA5}" name="Nom complet" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{99BD24B7-6293-4A9C-9C0D-27B38B380F45}" name="Catégorie" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B6F6427D-CC2C-402E-8813-133BC57A7239}" name="PropsSI" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{3829B39F-79A9-4169-A179-41BE3217B89C}" name="Rejet"/>
+    <tableColumn id="6" xr3:uid="{4C894A49-89C2-402C-B422-1501E891EA0D}" name="Avantage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -660,24 +991,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,11 +1037,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6"/>
@@ -715,14 +1052,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -735,299 +1072,291 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B6" s="17">
         <f>0.85</f>
         <v>0.85</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B7" s="19">
         <f>0.85</f>
         <v>0.85</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1</v>
+      <c r="B8" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
       </c>
       <c r="P9" s="2">
         <v>10</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="9">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="8">
         <f>0.85</f>
         <v>0.85</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P11" s="3">
         <f>0.85</f>
         <v>0.85</v>
       </c>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="9">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="10">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9">
+        <f>4*10^5</f>
+        <v>400000</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="10">
         <f>101325</f>
         <v>101325</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="Q18" s="6"/>
+      <c r="Y18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B19" s="2">
         <f>2*10^6</f>
         <v>2000000</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="12">
-        <f>1*100000</f>
-        <v>100000</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="13">
-        <v>31000000</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="12">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2">
-        <f>100000</f>
-        <v>100000</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="9">
-        <f>273.15 + 25</f>
-        <v>298.14999999999998</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="12">
-        <f>101325</f>
-        <v>101325</v>
-      </c>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3">
-        <f>273.15 + 15</f>
-        <v>288.14999999999998</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1039,40 +1368,63 @@
         <f>2*10^6</f>
         <v>2000000</v>
       </c>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="9">
-        <f>273.15 + 140</f>
-        <v>413.15</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="18">
+        <f>0.5*100000</f>
+        <v>50000</v>
       </c>
       <c r="H20" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="10">
         <f>1*100000</f>
         <v>100000</v>
       </c>
       <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3">
-        <f>347.15</f>
-        <v>347.15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B21" s="10">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1082,89 +1434,136 @@
       <c r="P21" s="2">
         <v>1000000</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="9">
-        <f>273.15 + 45</f>
-        <v>318.14999999999998</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>31000000</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B23" s="10">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
       </c>
       <c r="P23" s="2">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="9">
-        <f>838.15</f>
-        <v>838.15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="2">
+        <f>10*10^5</f>
+        <v>1000000</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <f>273.15 + 25</f>
         <v>298.14999999999998</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="10">
-        <f>7</f>
-        <v>7</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="21">
+        <v>31000000</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -1172,40 +1571,68 @@
         <f>273.15 + 15</f>
         <v>288.14999999999998</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B26" s="20">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P26" s="9">
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="8">
         <f>273.15 + 140</f>
         <v>413.15</v>
       </c>
       <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B27" s="17">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C27" s="6">
+        <v>25</v>
+      </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -1213,59 +1640,101 @@
         <f>273.15 + 90</f>
         <v>363.15</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="15">
-        <f>273.16</f>
-        <v>273.16000000000003</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B28" s="19">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="8">
         <f>273.15 + 40</f>
         <v>313.14999999999998</v>
       </c>
       <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Y28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="4">
-        <f>10*10^5</f>
-        <v>1000000</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B29" s="17">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="C29" s="6"/>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Y29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="15">
-        <v>100</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B30" s="19">
+        <f>273.15+55</f>
+        <v>328.15</v>
+      </c>
+      <c r="C30" s="19">
+        <f>347.15</f>
+        <v>347.15</v>
+      </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="9">
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="8">
         <f>838.15</f>
         <v>838.15</v>
       </c>
@@ -1273,252 +1742,1313 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="4">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="17">
+        <f>273.15 + 45</f>
+        <v>318.14999999999998</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="P31" s="10">
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="1">
         <v>10</v>
       </c>
-      <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="14">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="P32" s="14">
+        <v>38</v>
+      </c>
+      <c r="B32" s="20">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="12">
         <v>10</v>
       </c>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="5">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B33" s="17">
+        <f>838.15</f>
+        <v>838.15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D33" t="s">
         <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
       </c>
       <c r="P33" s="4">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="Q33" s="7"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="14">
-        <v>20</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <f>7</f>
+        <v>7</v>
+      </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="13">
         <f>273.16</f>
         <v>273.16000000000003</v>
       </c>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="5">
-        <f>2*10^5</f>
-        <v>200000</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" t="s">
         <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
       </c>
       <c r="P35" s="4">
         <f>10*10^5</f>
         <v>1000000</v>
       </c>
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="14">
-        <f>4*10^5</f>
-        <v>400000</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="P36" s="15">
+      <c r="P36" s="13">
         <v>100</v>
       </c>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10">
-        <f>0.5*100000</f>
-        <v>50000</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B37" s="13">
+        <f>273.16</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
       <c r="P37" s="4">
         <f>0.8</f>
         <v>0.8</v>
       </c>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="8">
+        <v>68</v>
+      </c>
+      <c r="B38" s="12">
         <v>10</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="14">
+      <c r="C38" s="6"/>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="P38" s="12">
         <f>10</f>
         <v>10</v>
       </c>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="10">
-        <f>0.98</f>
-        <v>0.98</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
       <c r="P39" s="5">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P40" s="14">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1">
+        <f>25.3 + 273.15</f>
+        <v>298.45</v>
+      </c>
+      <c r="C40">
+        <v>25.3</v>
+      </c>
+      <c r="P40" s="12">
         <v>20</v>
       </c>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="1">
+        <f>25.6+273.15</f>
+        <v>298.75</v>
+      </c>
+      <c r="C41">
+        <v>25.6</v>
+      </c>
       <c r="P41" s="5">
         <f>2*10^5</f>
         <v>200000</v>
       </c>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P42" s="14">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1">
+        <f>55+273.15</f>
+        <v>328.15</v>
+      </c>
+      <c r="C42">
+        <v>65</v>
+      </c>
+      <c r="P42" s="12">
         <f>4*10^5</f>
         <v>400000</v>
       </c>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="P43" s="10">
+      <c r="P43" s="1">
         <f>0.5*100000</f>
         <v>50000</v>
       </c>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <v>10</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="P45" s="10">
+      <c r="P45" s="1">
         <f>0.98</f>
         <v>0.98</v>
       </c>
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AF5A95-C86F-4BAF-82DC-7CD49039E943}">
+  <dimension ref="A1:AD61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="19">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="8">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="3">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="9">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="10">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9">
+        <f>4*10^5</f>
+        <v>400000</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="10">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="Y18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="2">
+        <f>2*10^6</f>
+        <v>2000000</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="18">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="10">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="Y20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="10">
+        <f>1*100000</f>
+        <v>100000</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="11">
+        <v>31000000</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="2">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2">
+        <f>10*10^5</f>
+        <v>1000000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="8">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="21">
+        <v>31000000</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="3">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="20">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="8">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="Y26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="17">
+        <f>273.15 + 25</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="3">
+        <f>273.15 + 90</f>
+        <v>363.15</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="19">
+        <f>273.15 + 15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="8">
+        <f>273.15 + 40</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="Y28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="17">
+        <f>273.15 + 140</f>
+        <v>413.15</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="19">
+        <f>347.15</f>
+        <v>347.15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="8">
+        <f>838.15</f>
+        <v>838.15</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="17">
+        <f>273.15 + 45</f>
+        <v>318.14999999999998</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="20">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="17">
+        <f>838.15</f>
+        <v>838.15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="4">
+        <f>10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="13">
+        <f>273.16</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" s="4">
+        <f>10*10^5</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="13">
+        <f>273.16</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="P37" s="4">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="12">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="P38" s="12">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="P39" s="5">
+        <f>10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P41" s="5">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="12">
+        <f>4*10^5</f>
+        <v>400000</v>
+      </c>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="P43" s="1">
+        <f>0.5*100000</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="P44" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="P45" s="1">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>